--- a/일괄등록.xlsx
+++ b/일괄등록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="초가짚_일괄등록" sheetId="1" r:id="rId1"/>
@@ -1162,10 +1162,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
-    <numFmt numFmtId="182" formatCode="###,##0"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,6 +1220,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF181A1C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1229,7 +1248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1252,6 +1271,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1261,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,10 +1308,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1285,6 +1319,24 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1570,10 +1622,10 @@
   <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="24.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -1585,7 +1637,7 @@
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1647,7 +1699,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,7 +1710,7 @@
         <v>48680</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1721,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1732,7 @@
         <v>988000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1743,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1724,7 +1776,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1735,7 +1787,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1746,7 +1798,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1809,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1768,7 +1820,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1779,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1842,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1853,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,7 +1864,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1834,7 +1886,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1845,7 +1897,7 @@
         <v>824000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1856,7 +1908,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1867,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1878,7 +1930,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1889,7 +1941,7 @@
         <v>219000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1900,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1911,7 +1963,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1922,7 +1974,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1933,7 +1985,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1944,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1955,7 +2007,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -1966,7 +2018,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1977,7 +2029,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1988,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -1999,7 +2051,7 @@
         <v>223000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2010,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2073,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -2032,7 +2084,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -2043,7 +2095,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -2054,7 +2106,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2065,7 +2117,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -2076,7 +2128,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -2087,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -2098,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -2109,7 +2161,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -2120,7 +2172,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
@@ -2131,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
@@ -2142,7 +2194,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -2153,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -2164,7 +2216,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -2175,7 +2227,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -2186,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -2197,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
@@ -2208,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -2219,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -2230,7 +2282,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
@@ -2241,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -2252,7 +2304,7 @@
         <v>352000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
@@ -2263,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
@@ -2274,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -2285,7 +2337,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -2296,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
@@ -2307,7 +2359,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>85</v>
       </c>
@@ -2318,7 +2370,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
@@ -2329,7 +2381,7 @@
         <v>104600</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>87</v>
       </c>
@@ -2340,7 +2392,7 @@
         <v>121000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -2351,7 +2403,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>89</v>
       </c>
@@ -2362,7 +2414,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
@@ -2373,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>91</v>
       </c>
@@ -2384,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>92</v>
       </c>
@@ -2395,7 +2447,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>93</v>
       </c>
@@ -2406,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>94</v>
       </c>
@@ -2417,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>95</v>
       </c>
@@ -2428,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -2439,7 +2491,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>97</v>
       </c>
@@ -2450,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>98</v>
       </c>
@@ -2461,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>100</v>
       </c>
@@ -2483,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>101</v>
       </c>
@@ -2494,7 +2546,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>102</v>
       </c>
@@ -2505,7 +2557,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>103</v>
       </c>
@@ -2516,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -2527,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>105</v>
       </c>
@@ -2538,7 +2590,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>106</v>
       </c>
@@ -2549,7 +2601,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>107</v>
       </c>
@@ -2560,7 +2612,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>108</v>
       </c>
@@ -2571,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>109</v>
       </c>
@@ -2582,7 +2634,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2645,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -2604,7 +2656,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
@@ -2626,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>114</v>
       </c>
@@ -2637,7 +2689,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>115</v>
       </c>
@@ -2648,7 +2700,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -2670,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
@@ -2681,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
@@ -2692,7 +2744,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
@@ -2703,7 +2755,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -2714,7 +2766,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>122</v>
       </c>
@@ -2725,7 +2777,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>123</v>
       </c>
@@ -2736,7 +2788,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>124</v>
       </c>
@@ -2747,7 +2799,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>125</v>
       </c>
@@ -2758,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>126</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>127</v>
       </c>
@@ -2780,7 +2832,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>128</v>
       </c>
@@ -2791,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>129</v>
       </c>
@@ -2802,7 +2854,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>130</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -2824,7 +2876,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>132</v>
       </c>
@@ -2835,7 +2887,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>133</v>
       </c>
@@ -2846,7 +2898,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>134</v>
       </c>
@@ -2857,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -2868,7 +2920,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>136</v>
       </c>
@@ -2879,7 +2931,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>137</v>
       </c>
@@ -2890,7 +2942,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>138</v>
       </c>
@@ -2901,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>139</v>
       </c>
@@ -2912,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>140</v>
       </c>
@@ -2923,7 +2975,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>141</v>
       </c>
@@ -2934,7 +2986,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>142</v>
       </c>
@@ -2945,7 +2997,7 @@
         <v>344000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
@@ -2956,7 +3008,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>144</v>
       </c>
@@ -2967,7 +3019,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>145</v>
       </c>
@@ -2978,7 +3030,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>146</v>
       </c>
@@ -2989,7 +3041,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>147</v>
       </c>
@@ -3000,7 +3052,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>148</v>
       </c>
@@ -3011,7 +3063,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>149</v>
       </c>
@@ -3022,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>150</v>
       </c>
@@ -3033,7 +3085,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>151</v>
       </c>
@@ -3044,7 +3096,7 @@
         <v>365000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>152</v>
       </c>
@@ -3055,7 +3107,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>153</v>
       </c>
@@ -3066,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
@@ -3077,7 +3129,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>155</v>
       </c>
@@ -3088,7 +3140,7 @@
         <v>515000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
@@ -3099,7 +3151,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>157</v>
       </c>
@@ -3110,7 +3162,7 @@
         <v>483000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -3121,7 +3173,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>159</v>
       </c>
@@ -3132,7 +3184,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -3143,7 +3195,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -3154,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>162</v>
       </c>
@@ -3165,7 +3217,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -3176,7 +3228,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>164</v>
       </c>
@@ -3187,7 +3239,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -3198,7 +3250,7 @@
         <v>183000</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>166</v>
       </c>
@@ -3209,7 +3261,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -3220,7 +3272,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>168</v>
       </c>
@@ -3231,7 +3283,7 @@
         <v>509000</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -3242,7 +3294,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>170</v>
       </c>
@@ -3253,7 +3305,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -3264,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>172</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -3286,7 +3338,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>174</v>
       </c>
@@ -3297,7 +3349,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -3308,7 +3360,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>176</v>
       </c>
@@ -3319,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -3330,7 +3382,7 @@
         <v>203000</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>178</v>
       </c>
@@ -3341,7 +3393,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -3352,7 +3404,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>180</v>
       </c>
@@ -3363,7 +3415,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -3374,7 +3426,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>182</v>
       </c>
@@ -3385,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -3396,7 +3448,7 @@
         <v>407000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>184</v>
       </c>
@@ -3407,7 +3459,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -3418,7 +3470,7 @@
         <v>121000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>186</v>
       </c>
@@ -3429,7 +3481,7 @@
         <v>191000</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -3440,7 +3492,7 @@
         <v>236000</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>188</v>
       </c>
@@ -3451,7 +3503,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -3462,7 +3514,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>190</v>
       </c>
@@ -3473,7 +3525,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -3484,7 +3536,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>192</v>
       </c>
@@ -3495,7 +3547,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -3506,7 +3558,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>194</v>
       </c>
@@ -3517,7 +3569,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -3528,7 +3580,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>196</v>
       </c>
@@ -3539,7 +3591,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -3550,7 +3602,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>198</v>
       </c>
@@ -3561,7 +3613,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -3572,7 +3624,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>200</v>
       </c>
@@ -3583,7 +3635,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -3594,7 +3646,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>202</v>
       </c>
@@ -3605,7 +3657,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>203</v>
       </c>
@@ -3616,7 +3668,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>204</v>
       </c>
@@ -3627,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>205</v>
       </c>
@@ -3638,7 +3690,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>206</v>
       </c>
@@ -3649,7 +3701,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>207</v>
       </c>
@@ -3660,7 +3712,7 @@
         <v>201000</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>208</v>
       </c>
@@ -3671,7 +3723,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>209</v>
       </c>
@@ -3682,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>210</v>
       </c>
@@ -3693,7 +3745,7 @@
         <v>109000</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>211</v>
       </c>
@@ -3704,7 +3756,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>212</v>
       </c>
@@ -3715,7 +3767,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>213</v>
       </c>
@@ -3726,7 +3778,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>214</v>
       </c>
@@ -3737,7 +3789,7 @@
         <v>287000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -3748,7 +3800,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>216</v>
       </c>
@@ -3759,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -3770,7 +3822,7 @@
         <v>188000</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>218</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>219</v>
       </c>
@@ -3792,7 +3844,7 @@
         <v>335000</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>220</v>
       </c>
@@ -3803,7 +3855,7 @@
         <v>247000</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>221</v>
       </c>
@@ -3814,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>222</v>
       </c>
@@ -3825,7 +3877,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>223</v>
       </c>
@@ -3836,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>224</v>
       </c>
@@ -3847,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>225</v>
       </c>
@@ -3858,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>226</v>
       </c>
@@ -3869,7 +3921,7 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>227</v>
       </c>
@@ -3880,7 +3932,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>228</v>
       </c>
@@ -3891,7 +3943,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>229</v>
       </c>
@@ -3902,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>230</v>
       </c>
@@ -3913,7 +3965,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>231</v>
       </c>
@@ -3924,7 +3976,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>232</v>
       </c>
@@ -3935,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>233</v>
       </c>
@@ -3946,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>234</v>
       </c>
@@ -3957,7 +4009,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>235</v>
       </c>
@@ -3968,7 +4020,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>236</v>
       </c>
@@ -3979,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>237</v>
       </c>
@@ -3990,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>238</v>
       </c>
@@ -4001,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>239</v>
       </c>
@@ -4012,7 +4064,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>240</v>
       </c>
@@ -4023,7 +4075,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>241</v>
       </c>
@@ -4034,7 +4086,7 @@
         <v>599000</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>242</v>
       </c>
@@ -4045,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>243</v>
       </c>
@@ -4066,11 +4118,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="6" bestFit="1" customWidth="1"/>
@@ -4101,7 +4153,7 @@
     <col min="35" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>244</v>
       </c>
@@ -4196,7 +4248,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34">
       <c r="A2" s="4">
         <v>45778</v>
       </c>
@@ -4280,7 +4332,7 @@
         <v>584800</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34">
       <c r="A3" s="4">
         <v>45809</v>
       </c>
@@ -4370,7 +4422,7 @@
         <v>705584</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34">
       <c r="A4" s="4">
         <v>45839</v>
       </c>
@@ -4457,7 +4509,7 @@
         <v>707200</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34">
       <c r="A5" s="4">
         <v>45870</v>
       </c>
@@ -4544,7 +4596,7 @@
         <v>596000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34">
       <c r="A6" s="4">
         <v>45901</v>
       </c>
@@ -4635,7 +4687,7 @@
         <v>622800</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34">
       <c r="A7" s="4">
         <v>45931</v>
       </c>
@@ -4726,7 +4778,7 @@
         <v>507000</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34">
       <c r="A8" s="4">
         <v>45962</v>
       </c>
@@ -4817,25 +4869,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="12.9140625" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4869,6 +4924,339 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8">
+        <v>46006</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8">
+        <v>46005</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2376000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>426000</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12">
+        <v>3294738</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1278400</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2319500</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8">
+        <v>46004</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2852000</v>
+      </c>
+      <c r="C4" s="9">
+        <v>92000</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
+        <v>324460</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10886072</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8">
+        <v>46003</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2139000</v>
+      </c>
+      <c r="C5" s="9">
+        <v>203000</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
+        <v>222750</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8">
+        <v>46002</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2463000</v>
+      </c>
+      <c r="C6" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <v>108110</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8">
+        <v>46001</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1674000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <v>302160</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8">
+        <v>46000</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2316000</v>
+      </c>
+      <c r="C8" s="9">
+        <v>89000</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>127810</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8">
+        <v>45999</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1406000</v>
+      </c>
+      <c r="C9" s="9">
+        <v>64000</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8">
+        <v>45998</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2497000</v>
+      </c>
+      <c r="C10" s="9">
+        <v>118000</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8">
+        <v>45997</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2739000</v>
+      </c>
+      <c r="C11" s="9">
+        <v>246000</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <v>622560</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8">
+        <v>45996</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2127000</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <v>103600</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8">
+        <v>45995</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1719000</v>
+      </c>
+      <c r="C13" s="9">
+        <v>93000</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <v>184960</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8">
+        <v>45994</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2550000</v>
+      </c>
+      <c r="C14" s="9">
+        <v>75000</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <v>226520</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8">
+        <v>45993</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2686000</v>
+      </c>
+      <c r="C15" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <v>183760</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1923000</v>
+      </c>
+      <c r="C16" s="9">
+        <v>143000</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>485220</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4882,41 +5270,41 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="55.25" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4924,7 +5312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="409.5">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -4935,5 +5323,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>